--- a/biology/Médecine/Injonction/Injonction.xlsx
+++ b/biology/Médecine/Injonction/Injonction.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une injonction est un ordre, un commandement ; le verbe correspondant est enjoindre.
 </t>
@@ -511,7 +523,9 @@
           <t>Pays de common law</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>injonction interlocutoire :  ordre d'un tribunal visant à obliger une personne à faire ou ne pas faire quelque chose en l'attente du jugement final.
 injonction finale : ordre d'un tribunal visant à obliger une personne à faire ou ne pas faire quelque chose une fois que le jugement est rendu.</t>
@@ -544,11 +558,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>En droit civil
-Injonction de faire en droit français :  procédure judiciaire rapide et peu onéreuse qui permet à un créancier de contraindre son débiteur à honorer ses engagements en l’obligeant à exécuter en nature son obligation contractuelle.
-Injonction de payer en procédure civile française :  procédure permettant à un créancier d'obtenir d'un juge un titre exécutoire (une ordonnance d'injonction de payer) afin de recouvrir sa créance. C'est une procédure judiciaire rapide et peu onéreuse qui permet à un créancier de contraindre son débiteur à honorer ses engagements.
-En droit pénal
-Injonction thérapeutique en France :  « oblige les auteurs d'actes de délinquance - mineurs et adultes - à bénéficier de soins, lorsque les faits qu'ils ont commis sont liés à une maladie psychiatrique ou à des troubles de la personnalité »[1]. Les injonctions thérapeutiques sont des peines complémentaires[2] de type injonction judiciaire consistant principalement à obliger un drogué ou un alcoolique à suivre une cure de désintoxication[3]. Il existe néanmoins d'autres injonctions de traitement, visant par exemple les auteurs de violences sexuelles[4].
+          <t>En droit civil</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Injonction de faire en droit français :  procédure judiciaire rapide et peu onéreuse qui permet à un créancier de contraindre son débiteur à honorer ses engagements en l’obligeant à exécuter en nature son obligation contractuelle.
+Injonction de payer en procédure civile française :  procédure permettant à un créancier d'obtenir d'un juge un titre exécutoire (une ordonnance d'injonction de payer) afin de recouvrir sa créance. C'est une procédure judiciaire rapide et peu onéreuse qui permet à un créancier de contraindre son débiteur à honorer ses engagements.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Injonction</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Injonction</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>En droit français</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>En droit pénal</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Injonction thérapeutique en France :  « oblige les auteurs d'actes de délinquance - mineurs et adultes - à bénéficier de soins, lorsque les faits qu'ils ont commis sont liés à une maladie psychiatrique ou à des troubles de la personnalité ». Les injonctions thérapeutiques sont des peines complémentaires de type injonction judiciaire consistant principalement à obliger un drogué ou un alcoolique à suivre une cure de désintoxication. Il existe néanmoins d'autres injonctions de traitement, visant par exemple les auteurs de violences sexuelles.
 Injonction de soins : obligation de suivi médico-social au long cours. Cette injonction est le plus souvent utilisée contre les délinquants sexuels, afin d’éviter la récidive.</t>
         </is>
       </c>
